--- a/Version_Controll.xlsx
+++ b/Version_Controll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Project\Project\Program\AM60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FACC5-55B3-4325-BEA0-896E07D582E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFAD5B-DFF0-4CE6-A332-01E367074026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>NO.</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>AM60_V0.3</t>
+  </si>
+  <si>
+    <t>Now function work but still LCD ON - OFF is not working</t>
+  </si>
+  <si>
+    <t>Remove TCF0 and use Old function TCE1</t>
+  </si>
+  <si>
+    <t>V0.4</t>
+  </si>
+  <si>
+    <t>V0.5</t>
+  </si>
+  <si>
+    <t>AM60_V0.4</t>
+  </si>
+  <si>
+    <t>AM60_V0.5</t>
+  </si>
+  <si>
+    <t>Remove function from sensor file and add it into main file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now Display is functioning properly ON-OFF but only for 1 sec. Need to impliment for 5 or more sec. </t>
   </si>
 </sst>
 </file>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -614,6 +638,52 @@
       </c>
       <c r="E4" s="5">
         <v>45596</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45600</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45600</v>
       </c>
     </row>
   </sheetData>

--- a/Version_Controll.xlsx
+++ b/Version_Controll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Project\Project\Program\AM60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFAD5B-DFF0-4CE6-A332-01E367074026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD420E9A-613B-4852-B6CD-C6C7F40493AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>NO.</t>
   </si>
@@ -134,13 +134,43 @@
   </si>
   <si>
     <t xml:space="preserve">Now Display is functioning properly ON-OFF but only for 1 sec. Need to impliment for 5 or more sec. </t>
+  </si>
+  <si>
+    <t>Change in Interrupt code for more time. Also add code for back_light ON-OFF with LCD</t>
+  </si>
+  <si>
+    <t>Stop the pulse on LCD pin for that try to stop timer TCD1 to dtop toggal of LCD pin</t>
+  </si>
+  <si>
+    <t>Horrible not work at all</t>
+  </si>
+  <si>
+    <t>V0.6</t>
+  </si>
+  <si>
+    <t>V0.7</t>
+  </si>
+  <si>
+    <t>AM60_V0.7</t>
+  </si>
+  <si>
+    <t>AM60_V0.6</t>
+  </si>
+  <si>
+    <t>Use lcd_on_flag in LCD.c file to stop toggal the lcd pin</t>
+  </si>
+  <si>
+    <t>If need to change in time period for ON goto: AM-60/MCU/timer/time.c and change in variable Time</t>
+  </si>
+  <si>
+    <t>Work Perfectly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +194,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -179,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,10 +462,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,112 +832,164 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="15">
         <v>45595</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>45595</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>45596</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>45600</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="19">
         <v>45600</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45570</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45571</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
